--- a/Example_ExportExcessCreditsBaseData/Resources/基本資料樣板.xlsx
+++ b/Example_ExportExcessCreditsBaseData/Resources/基本資料樣板.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Home\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyJob_Desktop\Github\ischoolJHWishBase\Example_ExportExcessCreditsBaseData\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="學生會考報名檔" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -85,253 +85,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>考區代碼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>考生姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>出生年</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>民國年</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>畢</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>結</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>業學校代碼</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>畢</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>結</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>業年</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>民國年</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>畢</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>結</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>業</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>考生身分</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>免試就學區</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>失業勞工子女</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>市內電話</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通訊地址</t>
+    <t>地區代碼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>學生姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出生年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>畢業學校代碼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>畢業年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>畢肄業</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>就學區</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>失業勞工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>室內電話</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -405,7 +199,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -715,7 +509,9 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:AA1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q3" sqref="Q3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -737,9 +533,9 @@
     <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="81" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -757,7 +553,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>5</v>
@@ -766,7 +562,7 @@
         <v>6</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>7</v>
@@ -775,16 +571,16 @@
         <v>8</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>9</v>

--- a/Example_ExportExcessCreditsBaseData/Resources/基本資料樣板.xlsx
+++ b/Example_ExportExcessCreditsBaseData/Resources/基本資料樣板.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyJob_Desktop\Github\ischoolJHWishBase\Example_ExportExcessCreditsBaseData\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ischoolProject\ischoolJHWishBase\Example_ExportExcessCreditsBaseData\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E19B4762-F1B5-472E-8D4A-8F0E87C820FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="19395" windowHeight="6930"/>
+    <workbookView xWindow="4875" yWindow="1905" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="學生會考報名檔" sheetId="1" r:id="rId1"/>
@@ -21,118 +22,91 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
+    <t>考區代碼</t>
+  </si>
+  <si>
     <t>集報單位代碼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>序號</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>學號</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>班級</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>座號</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>考生姓名</t>
   </si>
   <si>
     <t>身分證統一編號</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>性別</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出生年(民國年)</t>
   </si>
   <si>
     <t>出生月</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>出生日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>畢(結)業學校代碼</t>
+  </si>
+  <si>
+    <t>畢(結)業年(民國年)</t>
+  </si>
+  <si>
+    <t>畢(結)業</t>
+  </si>
+  <si>
+    <t>考生身分</t>
   </si>
   <si>
     <t>身心障礙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>免試就學區</t>
   </si>
   <si>
     <t>低收入戶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>中低收入戶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>失業勞工子女</t>
   </si>
   <si>
     <t>資料授權</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>家長姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>市內電話</t>
   </si>
   <si>
     <t>行動電話</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>郵遞區號</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>考生身分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地區代碼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>學生姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出生年</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>畢業學校代碼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>畢業年</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>畢肄業</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>就學區</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>失業勞工</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>室內電話</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通訊地址</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -220,9 +194,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -260,9 +234,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -297,7 +271,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -332,7 +306,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -505,13 +479,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:AA1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -533,84 +505,84 @@
     <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="64.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" ht="81" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="3" t="s">
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="4" t="s">
+      <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" s="4" t="s">
+      <c r="U1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="P1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="R1" s="3" t="s">
+      <c r="X1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="U1" s="3" t="s">
+      <c r="Y1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="V1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="X1" s="2" t="s">
+      <c r="Z1" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="AA1" s="3" t="s">
         <v>26</v>
